--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-05\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF07BE-3C18-49EA-87E6-E9EDE3A0EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BD8D5-0E36-4008-A747-198C3A12A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="32520" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+to cross differents cities</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{01B94E9E-9569-47A9-AABF-C47121165F1A}">
       <text>
         <r>
@@ -107,30 +131,6 @@
           </rPr>
           <t xml:space="preserve">
 place to bet on fights</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-to cross differents cities</t>
         </r>
       </text>
     </comment>
@@ -377,6 +377,30 @@
     <comment ref="C16" authorId="0" shapeId="0" xr:uid="{B48F766F-5144-4CB8-970A-1CC508FF98F6}">
       <text/>
     </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{6663EB02-451D-49B9-AE35-0CB3A5D1DE8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELF-city</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C18" authorId="0" shapeId="0" xr:uid="{3BCDCA17-0C46-42A4-B571-B36AA53599D1}">
       <text>
         <r>
@@ -445,7 +469,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-place to get your elf awards</t>
+place to get your quests awards</t>
         </r>
       </text>
     </comment>
@@ -478,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>market place</t>
   </si>
@@ -492,9 +516,6 @@
     <t>arena</t>
   </si>
   <si>
-    <t xml:space="preserve">library </t>
-  </si>
-  <si>
     <t>taverna</t>
   </si>
   <si>
@@ -576,84 +597,9 @@
     <t>small houses</t>
   </si>
   <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#11</t>
-  </si>
-  <si>
-    <t>#12</t>
-  </si>
-  <si>
-    <t>#13</t>
-  </si>
-  <si>
-    <t>#14</t>
-  </si>
-  <si>
     <t>statue</t>
   </si>
   <si>
-    <t>#21</t>
-  </si>
-  <si>
-    <t>#22</t>
-  </si>
-  <si>
-    <t>#23</t>
-  </si>
-  <si>
-    <t>#24</t>
-  </si>
-  <si>
-    <t>#30</t>
-  </si>
-  <si>
-    <t>#31</t>
-  </si>
-  <si>
-    <t>#32</t>
-  </si>
-  <si>
-    <t>#33</t>
-  </si>
-  <si>
-    <t>#40</t>
-  </si>
-  <si>
-    <t>#41</t>
-  </si>
-  <si>
-    <t>#42</t>
-  </si>
-  <si>
-    <t>#43</t>
-  </si>
-  <si>
-    <t>#44</t>
-  </si>
-  <si>
-    <t>portnawak</t>
-  </si>
-  <si>
-    <t>citybled</t>
-  </si>
-  <si>
-    <t>nainporterien</t>
-  </si>
-  <si>
-    <t>ELF Aquitaine</t>
-  </si>
-  <si>
     <t>Id_lieu</t>
   </si>
   <si>
@@ -675,19 +621,58 @@
     <t>lennybar</t>
   </si>
   <si>
-    <t>carrefour</t>
-  </si>
-  <si>
-    <t>trump shop</t>
-  </si>
-  <si>
-    <t>flucnhbar</t>
-  </si>
-  <si>
     <t>maxilase</t>
   </si>
   <si>
     <t>park in son</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>berlin wall</t>
+  </si>
+  <si>
+    <t>black market</t>
+  </si>
+  <si>
+    <t>place2b</t>
+  </si>
+  <si>
+    <t>treump shop</t>
+  </si>
+  <si>
+    <t>lehman sisters</t>
+  </si>
+  <si>
+    <t>in &amp; out</t>
+  </si>
+  <si>
+    <t>potatoe valley</t>
+  </si>
+  <si>
+    <t>daddy awards</t>
+  </si>
+  <si>
+    <t>msncircus</t>
+  </si>
+  <si>
+    <t>pirate search</t>
+  </si>
+  <si>
+    <t>Profit-city</t>
+  </si>
+  <si>
+    <t>flunchbar</t>
+  </si>
+  <si>
+    <t>Bad-town</t>
+  </si>
+  <si>
+    <t>nainportnawak</t>
+  </si>
+  <si>
+    <t>ELF village</t>
   </si>
 </sst>
 </file>
@@ -735,15 +720,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -751,14 +742,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,15 +1395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F595B-9FCB-4294-8001-2A3B22E88070}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
@@ -1093,623 +1415,328 @@
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>12</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>33</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>41</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-05\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BD8D5-0E36-4008-A747-198C3A12A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF07BE-3C18-49EA-87E6-E9EDE3A0EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{01B94E9E-9569-47A9-AABF-C47121165F1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+fighting place #1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{286E56C3-1A3A-4768-8C86-1D366D4E08B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+place to bet on fights</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
       <text>
         <r>
           <rPr>
@@ -86,54 +134,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{01B94E9E-9569-47A9-AABF-C47121165F1A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-fighting place #1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{286E56C3-1A3A-4768-8C86-1D366D4E08B8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-place to bet on fights</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B325F2DB-8ED6-4F4B-9D0B-BFC685C48938}">
       <text>
         <r>
@@ -377,30 +377,6 @@
     <comment ref="C16" authorId="0" shapeId="0" xr:uid="{B48F766F-5144-4CB8-970A-1CC508FF98F6}">
       <text/>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{6663EB02-451D-49B9-AE35-0CB3A5D1DE8A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ELF-city</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C18" authorId="0" shapeId="0" xr:uid="{3BCDCA17-0C46-42A4-B571-B36AA53599D1}">
       <text>
         <r>
@@ -469,7 +445,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-place to get your quests awards</t>
+place to get your elf awards</t>
         </r>
       </text>
     </comment>
@@ -502,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>market place</t>
   </si>
@@ -516,6 +492,9 @@
     <t>arena</t>
   </si>
   <si>
+    <t xml:space="preserve">library </t>
+  </si>
+  <si>
     <t>taverna</t>
   </si>
   <si>
@@ -597,9 +576,84 @@
     <t>small houses</t>
   </si>
   <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
     <t>statue</t>
   </si>
   <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>portnawak</t>
+  </si>
+  <si>
+    <t>citybled</t>
+  </si>
+  <si>
+    <t>nainporterien</t>
+  </si>
+  <si>
+    <t>ELF Aquitaine</t>
+  </si>
+  <si>
     <t>Id_lieu</t>
   </si>
   <si>
@@ -621,58 +675,19 @@
     <t>lennybar</t>
   </si>
   <si>
+    <t>carrefour</t>
+  </si>
+  <si>
+    <t>trump shop</t>
+  </si>
+  <si>
+    <t>flucnhbar</t>
+  </si>
+  <si>
     <t>maxilase</t>
   </si>
   <si>
     <t>park in son</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>berlin wall</t>
-  </si>
-  <si>
-    <t>black market</t>
-  </si>
-  <si>
-    <t>place2b</t>
-  </si>
-  <si>
-    <t>treump shop</t>
-  </si>
-  <si>
-    <t>lehman sisters</t>
-  </si>
-  <si>
-    <t>in &amp; out</t>
-  </si>
-  <si>
-    <t>potatoe valley</t>
-  </si>
-  <si>
-    <t>daddy awards</t>
-  </si>
-  <si>
-    <t>msncircus</t>
-  </si>
-  <si>
-    <t>pirate search</t>
-  </si>
-  <si>
-    <t>Profit-city</t>
-  </si>
-  <si>
-    <t>flunchbar</t>
-  </si>
-  <si>
-    <t>Bad-town</t>
-  </si>
-  <si>
-    <t>nainportnawak</t>
-  </si>
-  <si>
-    <t>ELF village</t>
   </si>
 </sst>
 </file>
@@ -720,21 +735,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -742,345 +751,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,15 +1073,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F595B-9FCB-4294-8001-2A3B22E88070}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
@@ -1415,328 +1093,623 @@
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>24</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>32</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>4</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="I17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>40</v>
-      </c>
-      <c r="B18" s="10"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>42</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>43</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C17:D17"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B84239-AC1E-4344-B7EB-6581C60CE855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1024B5-A77C-4FD7-B7B7-FFBF5701CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lieux-PnJ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1181,21 +1181,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1220,19 +1213,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,402 +1587,403 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="15" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="25"/>
-      <c r="G7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="G10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="25"/>
-      <c r="G12" s="2" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="25"/>
-      <c r="I17" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
+      <c r="I17" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="29" t="s">
         <v>83</v>
       </c>
     </row>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-08\Desktop\projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1024B5-A77C-4FD7-B7B7-FFBF5701CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7002CD3-729E-4B13-9311-7B45D9F174DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="31230" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
     <sheet name="Lieux-PnJ" sheetId="1" r:id="rId1"/>
@@ -1189,6 +1189,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1211,63 +1268,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1587,403 +1587,403 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="15" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="24" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2"/>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="21" t="s">
         <v>83</v>
       </c>
     </row>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Desktop\Projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BD8D5-0E36-4008-A747-198C3A12A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86BCED1-A61C-4014-9EA3-CAB4D89C8F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,271 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{01B94E9E-9569-47A9-AABF-C47121165F1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+fighting place #1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{286E56C3-1A3A-4768-8C86-1D366D4E08B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+place to bet on fights</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B325F2DB-8ED6-4F4B-9D0B-BFC685C48938}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fighting place #2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{0BAA7FD6-9F89-42DE-8EA3-37172A781DAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+THE PLACE to have fun</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{06904743-BD84-4816-9145-3FAB47252221}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+human city</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{BEF9DE27-BACA-405A-BEE9-908C304364EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+place to buy, sell and exchange</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{BEB4C4E6-863B-4226-8F85-86AA4A55CC64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1E9EF4AD-D8D8-4C38-BFC6-0792ECD8CE9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+shop to buy,sell &amp; exchange</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{519D221B-841B-4F80-A874-33884A0500BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dwarf city</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{EB570E1E-0F15-433D-91EA-9F03E4E0613B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+place to buy, sell &amp; exchange potions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{8B429408-B66D-4BB2-98D2-080B003640C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+place to drink and discuss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
       <text>
         <r>
           <rPr>
@@ -83,270 +347,6 @@
           </rPr>
           <t xml:space="preserve">
 to cross differents cities</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{01B94E9E-9569-47A9-AABF-C47121165F1A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-fighting place #1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{286E56C3-1A3A-4768-8C86-1D366D4E08B8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-place to bet on fights</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B325F2DB-8ED6-4F4B-9D0B-BFC685C48938}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-fighting place #2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{0BAA7FD6-9F89-42DE-8EA3-37172A781DAB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-THE PLACE to have fun</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{06904743-BD84-4816-9145-3FAB47252221}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-human city</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{BEF9DE27-BACA-405A-BEE9-908C304364EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-place to buy, sell and exchange</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{BEB4C4E6-863B-4226-8F85-86AA4A55CC64}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{1E9EF4AD-D8D8-4C38-BFC6-0792ECD8CE9B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-shop to buy,sell &amp; exchange</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{519D221B-841B-4F80-A874-33884A0500BD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-dwarf city</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{EB570E1E-0F15-433D-91EA-9F03E4E0613B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-place to buy, sell &amp; exchange potions</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{8B429408-B66D-4BB2-98D2-080B003640C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-place to drink and discuss</t>
         </r>
       </text>
     </comment>
@@ -1042,30 +1042,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1081,6 +1057,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,28 +1387,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F595B-9FCB-4294-8001-2A3B22E88070}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K17" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="7" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1428,261 +1420,382 @@
       <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="F2">
+        <v>51</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="K2" t="str">
+        <f>"("&amp;F2&amp;",'"&amp;G2&amp;"'),"</f>
+        <v>(51,'bench'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>11</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K16" si="0">"("&amp;F3&amp;",'"&amp;G3&amp;"'),"</f>
+        <v>(52,'table'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="F4">
+        <v>53</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>(53,'flowers'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>13</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>(54,'rocks'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>14</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="I6" s="2"/>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>(55,'street light's'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="F7">
+        <v>56</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="I7" s="2"/>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>(56,'statue'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>21</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="F8">
+        <v>57</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="I8" s="2"/>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>(57,'bucket'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>22</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="I9" s="2"/>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>(58,'fence'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>23</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="F10">
+        <v>59</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="I10" s="2"/>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>(59,'tent'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>24</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="I11" s="2"/>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>(60,'fontain'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12">
+        <v>61</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="I12" s="2"/>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>(61,'small houses'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>30</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="F13">
+        <v>62</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="I13" s="3"/>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>(62,'berlin wall'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>31</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>(70,'bridge &amp; river'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>32</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="F15" s="2">
+        <v>71</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>(71,'island'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>33</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="F16" s="2">
+        <v>72</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>(72,'teleporter'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>4</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="I17" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="2">
+        <v>73</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="K17" t="str">
+        <f>"("&amp;F17&amp;",'"&amp;G17&amp;"')"</f>
+        <v>(73,'door')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>40</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1690,11 +1803,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>41</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1702,11 +1815,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>42</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1714,11 +1827,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>43</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1727,16 +1840,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C17:D17"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Desktop\Projet\jdr2d\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B86BCED1-A61C-4014-9EA3-CAB4D89C8F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1024B5-A77C-4FD7-B7B7-FFBF5701CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lieux-PnJ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,6 +62,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CDA-05:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+to cross differents cities</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{01B94E9E-9569-47A9-AABF-C47121165F1A}">
       <text>
         <r>
@@ -70,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -79,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 fighting place #1</t>
@@ -94,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -103,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 place to bet on fights</t>
@@ -190,7 +214,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -199,7 +223,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 place to buy, sell and exchange</t>
@@ -214,7 +238,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -223,7 +247,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -286,7 +310,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -295,7 +319,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 place to buy, sell &amp; exchange potions</t>
@@ -310,7 +334,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -319,34 +343,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 place to drink and discuss</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CDA-05:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-to cross differents cities</t>
         </r>
       </text>
     </comment>
@@ -409,7 +409,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -418,7 +418,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 place to chat and meet other players</t>
@@ -433,7 +433,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>CDA-05:</t>
         </r>
@@ -442,7 +442,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 place to find quests</t>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>market place</t>
   </si>
@@ -528,9 +528,6 @@
     <t>quest center</t>
   </si>
   <si>
-    <t>castle</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -597,9 +594,69 @@
     <t>small houses</t>
   </si>
   <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
     <t>statue</t>
   </si>
   <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
     <t>Id_lieu</t>
   </si>
   <si>
@@ -615,9 +672,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>beercastle</t>
-  </si>
-  <si>
     <t>lennybar</t>
   </si>
   <si>
@@ -636,9 +690,6 @@
     <t>black market</t>
   </si>
   <si>
-    <t>place2b</t>
-  </si>
-  <si>
     <t>treump shop</t>
   </si>
   <si>
@@ -673,32 +724,82 @@
   </si>
   <si>
     <t>ELF village</t>
+  </si>
+  <si>
+    <t>Bours-La</t>
+  </si>
+  <si>
+    <t>Bernard Tappir</t>
+  </si>
+  <si>
+    <t>Ohbar</t>
+  </si>
+  <si>
+    <t>Toutavendre</t>
+  </si>
+  <si>
+    <t>Durdur</t>
+  </si>
+  <si>
+    <t>Chie mi Hendrix</t>
+  </si>
+  <si>
+    <t>Maitre Kanter</t>
+  </si>
+  <si>
+    <t>Nana Moule Curry</t>
+  </si>
+  <si>
+    <t>Iggy Pope</t>
+  </si>
+  <si>
+    <t>Alain Chichon</t>
+  </si>
+  <si>
+    <t>Jean Marie le PNJ (batte ail peut le tuer)</t>
+  </si>
+  <si>
+    <t>Nom PNJ</t>
+  </si>
+  <si>
+    <t>Nom  PNJ</t>
+  </si>
+  <si>
+    <t>Die Anna</t>
+  </si>
+  <si>
+    <t>casino</t>
+  </si>
+  <si>
+    <t>Lost Vegas</t>
+  </si>
+  <si>
+    <t>scissor palace</t>
+  </si>
+  <si>
+    <t>place-2-B</t>
+  </si>
+  <si>
+    <t>Hippique-sous</t>
+  </si>
+  <si>
+    <t>Victoria-Big-B</t>
+  </si>
+  <si>
+    <t>seul sans quete(dialogue de vente)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -720,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,8 +834,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1027,52 +1134,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,460 +1584,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F595B-9FCB-4294-8001-2A3B22E88070}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K2:K17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="15" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2"/>
+      <c r="I17" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="str">
-        <f>"("&amp;F2&amp;",'"&amp;G2&amp;"'),"</f>
-        <v>(51,'bench'),</v>
-      </c>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K16" si="0">"("&amp;F3&amp;",'"&amp;G3&amp;"'),"</f>
-        <v>(52,'table'),</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>12</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>53</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>(53,'flowers'),</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>(54,'rocks'),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>14</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>(55,'street light's'),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="F7">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>(56,'statue'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>21</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>(57,'bucket'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
-        <v>58</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
-        <v>(58,'fence'),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>23</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>59</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>(59,'tent'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>60</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v>(60,'fontain'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="F12">
-        <v>61</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
-        <v>(61,'small houses'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>30</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>62</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v>(62,'berlin wall'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>31</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2">
-        <v>70</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
-        <v>(70,'bridge &amp; river'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>32</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2">
-        <v>71</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>(71,'island'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>33</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2">
-        <v>72</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>(72,'teleporter'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>4</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="F17" s="2">
-        <v>73</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="str">
-        <f>"("&amp;F17&amp;",'"&amp;G17&amp;"')"</f>
-        <v>(73,'door')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>41</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>42</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>48</v>
+      <c r="D21" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-CDA-12\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Desktop\Projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1024B5-A77C-4FD7-B7B7-FFBF5701CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C49E3F-63E9-48CC-9D27-9B85499B947B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView minimized="1" xWindow="3480" yWindow="165" windowWidth="21600" windowHeight="11385" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
     <sheet name="Lieux-PnJ" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{59BA2111-2256-43AB-AED9-6849B9AB7E0B}">
       <text>
         <r>
           <rPr>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>market place</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>seul sans quete(dialogue de vente)</t>
+  </si>
+  <si>
+    <t>id_personnage</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,6 +1192,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1213,61 +1273,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1584,407 +1596,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F595B-9FCB-4294-8001-2A3B22E88070}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24" style="15" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="15" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17" style="7" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="31"/>
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="11" t="s">
         <v>87</v>
       </c>
+      <c r="K2" s="11">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7">
+        <v>70</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="K3" s="32">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7">
+        <v>71</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="31"/>
+      <c r="H7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="31">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="32">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="14" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="31"/>
+      <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="32">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="31"/>
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="15" t="s">
         <v>80</v>
       </c>
+      <c r="F14" s="32">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="15" t="s">
         <v>81</v>
       </c>
+      <c r="F16" s="32">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2"/>
-      <c r="I17" s="15" t="s">
+      <c r="F17" s="31"/>
+      <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="2"/>
+      <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="15" t="s">
         <v>82</v>
       </c>
+      <c r="F19" s="32">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="F20" s="32">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="21" t="s">
         <v>83</v>
+      </c>
+      <c r="F21" s="32">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lieux.xlsx
+++ b/docs/lieux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Desktop\Projet\jdr2d\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C49E3F-63E9-48CC-9D27-9B85499B947B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE09874-5A8C-4734-868D-CF6036239C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3480" yWindow="165" windowWidth="21600" windowHeight="11385" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAFB9A12-5683-4B08-B3E7-0ACF3A3D935D}"/>
   </bookViews>
   <sheets>
     <sheet name="Lieux-PnJ" sheetId="1" r:id="rId1"/>
@@ -1184,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1249,6 +1249,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1271,15 +1274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1598,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3F595B-9FCB-4294-8001-2A3B22E88070}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1630,7 @@
       <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1648,19 +1642,17 @@
       <c r="J1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="31"/>
       <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1676,7 @@
       <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
@@ -1706,7 +1698,7 @@
       <c r="J3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="11">
         <v>15</v>
       </c>
       <c r="L3" s="7">
@@ -1720,7 +1712,7 @@
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1730,9 +1722,6 @@
       <c r="E4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
       <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1740,13 +1729,12 @@
         <v>17</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="13" t="s">
         <v>88</v>
       </c>
@@ -1766,13 +1754,12 @@
         <v>18</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1790,31 +1777,28 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="31"/>
       <c r="H7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1808,7 @@
       <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="7">
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1835,13 +1819,12 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="13" t="s">
         <v>59</v>
       </c>
@@ -1851,7 +1834,7 @@
       <c r="E9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="11">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -1859,13 +1842,12 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
@@ -1873,19 +1855,17 @@
         <v>91</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
       <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1895,7 +1875,7 @@
       <c r="E11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="11">
         <v>7</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -1903,31 +1883,28 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="31"/>
       <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1914,7 @@
       <c r="E13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="11">
         <v>8</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -1945,13 +1922,12 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1937,7 @@
       <c r="E14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1969,7 +1945,7 @@
       <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +1957,7 @@
       <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +1967,7 @@
       <c r="E16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="11">
         <v>10</v>
       </c>
     </row>
@@ -1999,13 +1975,12 @@
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="31"/>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2014,7 +1989,7 @@
       <c r="A18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
@@ -2022,13 +1997,12 @@
         <v>67</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2012,7 @@
       <c r="E19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="11">
         <v>11</v>
       </c>
     </row>
@@ -2046,7 +2020,7 @@
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2030,7 @@
       <c r="E20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="11">
         <v>12</v>
       </c>
     </row>
@@ -2064,7 +2038,7 @@
       <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="19" t="s">
         <v>13</v>
       </c>
@@ -2074,7 +2048,7 @@
       <c r="E21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="11">
         <v>13</v>
       </c>
     </row>
